--- a/tabela_taco/bebidas.xlsx
+++ b/tabela_taco/bebidas.xlsx
@@ -27,73 +27,73 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
-    <t>Name </t>
-  </si>
-  <si>
-    <t>unity </t>
-  </si>
-  <si>
-    <t>lime </t>
-  </si>
-  <si>
-    <t>protein </t>
-  </si>
-  <si>
-    <t>fats </t>
-  </si>
-  <si>
-    <t>carb </t>
-  </si>
-  <si>
-    <t>Details </t>
-  </si>
-  <si>
-    <t>grams </t>
-  </si>
-  <si>
-    <t>SOURCE: Club table (UNICAMP) </t>
-  </si>
-  <si>
-    <t>Isotonic drink, assorted flavors </t>
-  </si>
-  <si>
-    <t>Coffee, infusion 10% </t>
-  </si>
-  <si>
-    <t>sugarcane brandy 1 </t>
-  </si>
-  <si>
-    <t>cane, broth </t>
-  </si>
-  <si>
-    <t>beer, pilsen 2 </t>
-  </si>
-  <si>
-    <t>Tea, fennel, infusion 5% </t>
-  </si>
-  <si>
-    <t>Tea, mate, infusion 5% </t>
-  </si>
-  <si>
-    <t>Tea, black, 5% infusion </t>
-  </si>
-  <si>
-    <t>coconut water </t>
-  </si>
-  <si>
-    <t>Soda, like tonic water </t>
-  </si>
-  <si>
-    <t>Soft drink, cola type </t>
-  </si>
-  <si>
-    <t>Soft drink, guarana type </t>
-  </si>
-  <si>
-    <t>Soft drink, orange type </t>
-  </si>
-  <si>
-    <t>Soft drink, lemon type </t>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>unidade</t>
+  </si>
+  <si>
+    <t>cal</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>fats</t>
+  </si>
+  <si>
+    <t>carb</t>
+  </si>
+  <si>
+    <t>detalhes</t>
+  </si>
+  <si>
+    <t>gramas</t>
+  </si>
+  <si>
+    <t>FONTE: Tabela taco (UNICAMP)</t>
+  </si>
+  <si>
+    <t>Bebida isotônica, sabores variados</t>
+  </si>
+  <si>
+    <t>Café, infusão 10%</t>
+  </si>
+  <si>
+    <t>Cana, aguardente 1</t>
+  </si>
+  <si>
+    <t>Cana, caldo de</t>
+  </si>
+  <si>
+    <t>Cerveja, pilsen 2</t>
+  </si>
+  <si>
+    <t>Chá, erva-doce, infusão 5%</t>
+  </si>
+  <si>
+    <t>Chá, mate, infusão 5%</t>
+  </si>
+  <si>
+    <t>Chá, preto, infusão 5%</t>
+  </si>
+  <si>
+    <t>Coco, água de</t>
+  </si>
+  <si>
+    <t>Refrigerante, tipo água tônica</t>
+  </si>
+  <si>
+    <t>Refrigerante, tipo cola</t>
+  </si>
+  <si>
+    <t>Refrigerante, tipo guaraná</t>
+  </si>
+  <si>
+    <t>Refrigerante, tipo laranja</t>
+  </si>
+  <si>
+    <t>Refrigerante, tipo limão</t>
   </si>
 </sst>
 </file>
